--- a/notebooks/transportation-lp/transportation-lp.xlsx
+++ b/notebooks/transportation-lp/transportation-lp.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbiagion/gitrepos/optimization-modeling-info-3440/notebooks/transportation-lp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave.Biagioni\gitrepos\optimization-modeling-info-3440\notebooks\transportation-lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A7F42C-0AA9-144F-84C8-CF811A4CCA00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29800" yWindow="-7860" windowWidth="28600" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29796" yWindow="-7860" windowWidth="28596" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Transportation" sheetId="1" r:id="rId1"/>
+    <sheet name="cost" sheetId="2" r:id="rId2"/>
+    <sheet name="demand" sheetId="3" r:id="rId3"/>
+    <sheet name="capacity" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Transportation!$C$12:$F$14</definedName>
@@ -51,7 +53,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>(To) Warehouse</t>
   </si>
@@ -123,13 +125,19 @@
   </si>
   <si>
     <t>slack</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,7 +202,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,24 +479,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -508,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -528,7 +538,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -548,7 +558,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -568,7 +578,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -585,17 +595,17 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -621,7 +631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -652,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -683,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -714,7 +724,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -735,7 +745,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
@@ -749,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -766,7 +776,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -787,13 +797,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="3">
         <f>SUMPRODUCT(C12:F14,C4:F6)</f>
         <v>13830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+      <c r="C2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.22</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.36</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.65</v>
+      </c>
+      <c r="C4">
+        <v>0.68</v>
+      </c>
+      <c r="D4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
